--- a/data/GIAD_status_goal.xlsx
+++ b/data/GIAD_status_goal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069D161-41F4-D746-8666-644555F8E382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669CEBB-E2D6-4B49-9C67-FAEDBCBF4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="14280" yWindow="-19560" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>session</t>
   </si>
   <si>
-    <t>bl</t>
+    <t>bl_acc</t>
   </si>
   <si>
-    <t>tx</t>
+    <t>tx_acc</t>
+  </si>
+  <si>
+    <t>bl_end</t>
+  </si>
+  <si>
+    <t>tx_end</t>
   </si>
 </sst>
 </file>
@@ -393,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,61 +417,88 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>89.81</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>82.93</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>87.32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>85.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6">
         <v>88.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7">
         <v>85.94</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8">
         <v>95.09</v>
+      </c>
+      <c r="E8">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/GIAD_status_goal.xlsx
+++ b/data/GIAD_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669CEBB-E2D6-4B49-9C67-FAEDBCBF4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2166052-E1B5-5B44-974F-8F0147CCF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="-19560" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>89.81</v>
+        <v>88.68</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -451,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>87.32</v>
+        <v>87.5</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -473,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>88.94</v>
+        <v>88.1</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>85.94</v>
+        <v>85.84</v>
       </c>
       <c r="E7">
         <v>226</v>
@@ -495,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>95.09</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/GIAD_status_goal.xlsx
+++ b/data/GIAD_status_goal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2166052-E1B5-5B44-974F-8F0147CCF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573DA58D-6448-E24E-92D2-945361B33D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>session</t>
   </si>
@@ -48,16 +48,41 @@
   </si>
   <si>
     <t>tx_end</t>
+  </si>
+  <si>
+    <t>bl_duration</t>
+  </si>
+  <si>
+    <t>tx_duration</t>
+  </si>
+  <si>
+    <t>bl_correct</t>
+  </si>
+  <si>
+    <t>tx_correct</t>
+  </si>
+  <si>
+    <t>all_duration</t>
+  </si>
+  <si>
+    <t>all_correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +449,26 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,8 +478,22 @@
       <c r="D2">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>141</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -445,8 +503,22 @@
       <c r="D3">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,8 +528,22 @@
       <c r="D4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -467,8 +553,22 @@
       <c r="D5">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -478,8 +578,22 @@
       <c r="E6">
         <v>210</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>185</v>
+      </c>
+      <c r="J6" s="1">
+        <v>88</v>
+      </c>
+      <c r="K6" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -489,8 +603,22 @@
       <c r="E7">
         <v>226</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>124</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>194</v>
+      </c>
+      <c r="J7" s="1">
+        <v>124</v>
+      </c>
+      <c r="K7" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -499,6 +627,18 @@
       </c>
       <c r="E8">
         <v>275</v>
+      </c>
+      <c r="G8">
+        <v>145</v>
+      </c>
+      <c r="I8">
+        <v>253</v>
+      </c>
+      <c r="J8">
+        <v>145</v>
+      </c>
+      <c r="K8">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
